--- a/src/test/resources/ExcelSheet/testdata.xlsx
+++ b/src/test/resources/ExcelSheet/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14940" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>URL</t>
   </si>
   <si>
     <t>https://www.snapdeal.com/</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>https://www.snapdeal.com/login</t>
   </si>
   <si>
     <t>mdivyadivs@gmail.com</t>
@@ -382,14 +376,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -397,13 +390,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -411,13 +401,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
